--- a/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_2_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.732060764267266</v>
+        <v>3.355156782754729</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.607365408864317</v>
+        <v>-1.091933360515259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4796007041147863</v>
+        <v>-0.1560960141501319</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.839229654419289</v>
+        <v>5.615080776957336</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2599578845053508</v>
+        <v>0.2988527612407451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.173484037074821</v>
+        <v>-0.1380548978283027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07935292776283262</v>
+        <v>-0.03548886823829924</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6592919341429</v>
+        <v>0.6636165860111464</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.11539999023687</v>
+        <v>11.18372764781961</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.354752067408135</v>
+        <v>7.175671087262045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.428194239128037</v>
+        <v>7.335331514224015</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.57790534341334</v>
+        <v>18.24023238130949</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.709175310723694</v>
+        <v>1.654159146687259</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.007436163261205</v>
+        <v>1.104327416576949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.419599064328059</v>
+        <v>1.462402059042689</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8.881140947547054</v>
+        <v>8.646234853907055</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.128040377122622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.566661246877652</v>
+        <v>2.566661246877655</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5274574684087535</v>
@@ -749,7 +749,7 @@
         <v>0.2436235448878148</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.239040980134548</v>
+        <v>0.2390409801345483</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.000852527498378</v>
+        <v>2.699232176675599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.922239670703574</v>
+        <v>1.92372927732893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.684182967173738</v>
+        <v>-1.560294686977201</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.781987252846083</v>
+        <v>-2.775268880611358</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1385735412529308</v>
+        <v>0.1661457422363106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1521709221955698</v>
+        <v>0.1746237271182365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.166239979697731</v>
+        <v>-0.1447883533930777</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1993294797202233</v>
+        <v>-0.2015219996649796</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.00446205103846</v>
+        <v>10.53928682425246</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.21591277105995</v>
+        <v>9.874731515295423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.606355741630171</v>
+        <v>5.551238045534588</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.184622473553354</v>
+        <v>7.100611446218215</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9778211041658506</v>
+        <v>0.9965531684019547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.131274288764103</v>
+        <v>1.321228029610762</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8049052190592976</v>
+        <v>0.7815650802608011</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8895791986643123</v>
+        <v>0.8973305230877303</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4860724254086716</v>
+        <v>0.02172807470737764</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.028450425164961</v>
+        <v>0.8053059985769325</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.233259612573278</v>
+        <v>1.275497132423075</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.367835636729191</v>
+        <v>-1.289584748637801</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02693815151990475</v>
+        <v>0.001790933671320261</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05458068845401008</v>
+        <v>0.04401797073873467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09958589865221198</v>
+        <v>0.1067805507363909</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09469708943925756</v>
+        <v>-0.08563582777117794</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.650107434304287</v>
+        <v>8.798744575739871</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.210090408022904</v>
+        <v>9.060013555150968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.317242705104331</v>
+        <v>8.223421804130702</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.79371766352888</v>
+        <v>6.231028679343178</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6566124752975884</v>
+        <v>0.5943070054748109</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7389165108704618</v>
+        <v>0.7228083952391113</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.047883910765102</v>
+        <v>1.05106879833352</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5298638385735341</v>
+        <v>0.5706716963073523</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.16763899070352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.290275990668896</v>
+        <v>4.290275990668898</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6064314969392549</v>
@@ -949,7 +949,7 @@
         <v>0.2689846330832838</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2593775496123215</v>
+        <v>0.2593775496123217</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.485009143004842</v>
+        <v>5.601400753054015</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.436429648951145</v>
+        <v>5.844564665369921</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.2048149749369699</v>
+        <v>-0.3608955620269085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1705618072400692</v>
+        <v>0.2593243238921005</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2566591053444396</v>
+        <v>0.2538700292529036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2757365684731662</v>
+        <v>0.3057983412227676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02361433855772672</v>
+        <v>-0.01306394531290019</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.008880479855393524</v>
+        <v>0.01362142411039816</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.61799274742261</v>
+        <v>15.9937147140512</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.50375321136587</v>
+        <v>15.52414922618844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.486365907798026</v>
+        <v>8.503414661790581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.470049030271622</v>
+        <v>7.740714466959936</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.006031442559487</v>
+        <v>1.065258976110936</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.081282111759686</v>
+        <v>1.113546520563349</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6316388516591802</v>
+        <v>0.6589742880332261</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5216713814915255</v>
+        <v>0.5377262701710492</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.332794837719819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.073363567233332</v>
+        <v>7.073363567233337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2423792345322455</v>
@@ -1049,7 +1049,7 @@
         <v>0.4882835619926766</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3380963320739979</v>
+        <v>0.3380963320739982</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.482722985689777</v>
+        <v>0.4696958332847081</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.501169903191048</v>
+        <v>2.306348078729179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.442371921036486</v>
+        <v>3.288134554804551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.025799530855659</v>
+        <v>3.008804020365432</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01454227383145688</v>
+        <v>0.012766046555334</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08634017770311871</v>
+        <v>0.08042986600224616</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1693230382881866</v>
+        <v>0.1506284758870163</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1323012386183844</v>
+        <v>0.1309666606797719</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.53478963872894</v>
+        <v>13.54675576209582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.50773529808649</v>
+        <v>14.77151868514864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.06231749451067</v>
+        <v>14.88535508665994</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.11054323128038</v>
+        <v>10.86007473013888</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5295340339772296</v>
+        <v>0.5183463605150982</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7481355136126974</v>
+        <v>0.7129564686045388</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9391098315078962</v>
+        <v>0.8978870366309845</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6087525201389578</v>
+        <v>0.5961823259921688</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>9.108049081960761</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9.464246548477956</v>
+        <v>9.46424654847795</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.610039190882687</v>
@@ -1149,7 +1149,7 @@
         <v>0.3409996234844389</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.4265013961591156</v>
+        <v>0.4265013961591154</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>12.20184368472528</v>
+        <v>12.92997770016622</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.153247688270089</v>
+        <v>1.239728952417378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.967238235691142</v>
+        <v>1.599595471803907</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.66841617951185</v>
+        <v>4.376758903040872</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3274790371073133</v>
+        <v>0.3705602657229691</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03750339236330268</v>
+        <v>0.03536092615227819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06737778562557821</v>
+        <v>0.05373750391380504</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1797903715424598</v>
+        <v>0.1723891502985958</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>27.29858498041861</v>
+        <v>27.02009710759594</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.84329903022647</v>
+        <v>15.81322498044858</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.33861452331827</v>
+        <v>15.70667834176984</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.29306422089545</v>
+        <v>14.33555905875478</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9430451252351778</v>
+        <v>0.9781258541241721</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6790959655554236</v>
+        <v>0.666689251446356</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6903226855171897</v>
+        <v>0.679726074276665</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7284596355105336</v>
+        <v>0.7273375105621126</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.188094559806905</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.570032772776407</v>
+        <v>5.570032772776401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2048598925655475</v>
@@ -1249,7 +1249,7 @@
         <v>0.1245407868927982</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1540247133243732</v>
+        <v>0.154024713324373</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.308673604619569</v>
+        <v>1.724963109848977</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.227868896501075</v>
+        <v>-1.231914225842214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.741967032828196</v>
+        <v>-2.446925514927251</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1169436517908848</v>
+        <v>-0.7005801448149369</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.02611043996902647</v>
+        <v>0.02911669754549102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04668590646429339</v>
+        <v>-0.02604340254994955</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06315133740513043</v>
+        <v>-0.05682137761280068</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.000242327283665616</v>
+        <v>-0.01001144154975788</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.25788158751284</v>
+        <v>19.42903708684914</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>14.63010323335459</v>
+        <v>15.51378804524144</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.37167640565745</v>
+        <v>13.52502614007622</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.28546032372048</v>
+        <v>10.87675414070203</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4299608092017976</v>
+        <v>0.4482319098143945</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4011819706136784</v>
+        <v>0.4221549431288133</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3514775552792792</v>
+        <v>0.355262203898255</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.339793659571464</v>
+        <v>0.3385454255559905</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>6.567466188188945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6.617736339065247</v>
+        <v>6.617736339065239</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5207795035316926</v>
@@ -1349,7 +1349,7 @@
         <v>0.4191240300319288</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.3920153425350609</v>
+        <v>0.3920153425350604</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.976775313950836</v>
+        <v>8.25893953820545</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.109239061424576</v>
+        <v>6.19531996061392</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.628356526355123</v>
+        <v>4.584284692252886</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.928249987469161</v>
+        <v>4.905750541744579</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3892414892627907</v>
+        <v>0.392773752342283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3359863455031767</v>
+        <v>0.3407629198510513</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2786321525553289</v>
+        <v>0.2768332066712745</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2714671581239183</v>
+        <v>0.2802963235105216</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.34138038979451</v>
+        <v>12.39400499031741</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.893062033714607</v>
+        <v>10.41009934366055</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.380938286885055</v>
+        <v>8.436304823511499</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8.328411031561824</v>
+        <v>8.483376187647904</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6777110904244519</v>
+        <v>0.6633609883055446</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6100501992964105</v>
+        <v>0.6278289004340827</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.566453499688481</v>
+        <v>0.578663998886875</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5282720038343555</v>
+        <v>0.5382666987692529</v>
       </c>
     </row>
     <row r="28">
